--- a/Validation documents/Cross Reference of current rules to PINT A-NZ.xlsx
+++ b/Validation documents/Cross Reference of current rules to PINT A-NZ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="256" documentId="8_{58373C9B-84C8-4381-B647-985956F9D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F548277A-6CF3-404B-8C4B-2AEF3661E823}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB56843-13D8-41B8-9899-3B6241A023BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1230" windowWidth="13875" windowHeight="9540" tabRatio="631" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="631" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current A-NZ v1.0.10" sheetId="32" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5782" uniqueCount="1377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5782" uniqueCount="1378">
   <si>
     <t>ID changed</t>
   </si>
@@ -4214,6 +4214,9 @@
   <si>
     <t>PINT A-NZ specifications:</t>
   </si>
+  <si>
+    <t>Removed ibr-cl-27 to align with BIS Billing 3.0 A-NZ</t>
+  </si>
 </sst>
 </file>
 
@@ -4222,7 +4225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -4538,6 +4541,23 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Inter"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Inter"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="Inter"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5038,7 +5058,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -5161,6 +5181,12 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="34" borderId="16" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="34" borderId="16" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -5652,7 +5678,7 @@
   </sheetPr>
   <dimension ref="B2:M371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -17995,14 +18021,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6375F8B4-5713-48DA-8140-090B0BCE5F30}">
-  <sheetPr codeName="Sheet2">
+  <sheetPr codeName="Sheet2" filterMode="1">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="B1:J258"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H264" sqref="H264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -18138,7 +18164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>1085</v>
       </c>
@@ -18167,7 +18193,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>1085</v>
       </c>
@@ -18196,7 +18222,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>1085</v>
       </c>
@@ -18225,7 +18251,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
         <v>1085</v>
       </c>
@@ -18254,7 +18280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
         <v>1085</v>
       </c>
@@ -18283,7 +18309,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
         <v>1085</v>
       </c>
@@ -18312,7 +18338,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" s="11" t="s">
         <v>1085</v>
       </c>
@@ -18341,7 +18367,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13" t="s">
         <v>1085</v>
       </c>
@@ -18370,7 +18396,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>1085</v>
       </c>
@@ -18399,7 +18425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13" t="s">
         <v>1085</v>
       </c>
@@ -18428,7 +18454,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
         <v>1085</v>
       </c>
@@ -18457,7 +18483,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13" t="s">
         <v>1085</v>
       </c>
@@ -18486,7 +18512,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>1085</v>
       </c>
@@ -18515,7 +18541,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
         <v>1085</v>
       </c>
@@ -18544,7 +18570,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>1085</v>
       </c>
@@ -18573,7 +18599,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13" t="s">
         <v>1085</v>
       </c>
@@ -18602,7 +18628,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>1085</v>
       </c>
@@ -18631,7 +18657,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
         <v>1085</v>
       </c>
@@ -18660,7 +18686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
         <v>1085</v>
       </c>
@@ -18689,7 +18715,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" s="13" t="s">
         <v>1085</v>
       </c>
@@ -18718,7 +18744,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>1085</v>
       </c>
@@ -18747,7 +18773,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
         <v>1085</v>
       </c>
@@ -18776,7 +18802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>1085</v>
       </c>
@@ -18805,7 +18831,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
         <v>1085</v>
       </c>
@@ -18834,7 +18860,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>1085</v>
       </c>
@@ -18863,7 +18889,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>1085</v>
       </c>
@@ -18893,26 +18919,26 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="41" t="s">
         <v>1085</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="41" t="s">
         <v>1112</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="11" t="s">
+      <c r="F37" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="41" t="s">
         <v>0</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>32</v>
+        <v>1377</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>32</v>
@@ -18921,7 +18947,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13" t="s">
         <v>1085</v>
       </c>
@@ -18950,7 +18976,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" s="11" t="s">
         <v>1085</v>
       </c>
@@ -18979,7 +19005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13" t="s">
         <v>1085</v>
       </c>
@@ -19008,7 +19034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" s="11" t="s">
         <v>1085</v>
       </c>
@@ -19037,7 +19063,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" s="13" t="s">
         <v>1085</v>
       </c>
@@ -19066,7 +19092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" s="11" t="s">
         <v>1085</v>
       </c>
@@ -19095,7 +19121,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" s="13" t="s">
         <v>1085</v>
       </c>
@@ -19124,7 +19150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" s="11" t="s">
         <v>1085</v>
       </c>
@@ -19153,7 +19179,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" s="13" t="s">
         <v>1085</v>
       </c>
@@ -19182,7 +19208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" s="11" t="s">
         <v>1085</v>
       </c>
@@ -19211,7 +19237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" s="13" t="s">
         <v>1085</v>
       </c>
@@ -19240,7 +19266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
         <v>1085</v>
       </c>
@@ -19269,7 +19295,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="13" t="s">
         <v>1085</v>
       </c>
@@ -19298,7 +19324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
         <v>1085</v>
       </c>
@@ -19327,7 +19353,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" s="13" t="s">
         <v>1085</v>
       </c>
@@ -19356,7 +19382,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="s">
         <v>1085</v>
       </c>
@@ -19385,7 +19411,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" s="13" t="s">
         <v>1085</v>
       </c>
@@ -19414,7 +19440,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" s="11" t="s">
         <v>1085</v>
       </c>
@@ -19443,7 +19469,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" s="13" t="s">
         <v>1085</v>
       </c>
@@ -19472,7 +19498,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" s="11" t="s">
         <v>1085</v>
       </c>
@@ -19501,7 +19527,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" s="13" t="s">
         <v>1085</v>
       </c>
@@ -19530,7 +19556,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" s="11" t="s">
         <v>1085</v>
       </c>
@@ -19559,7 +19585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" s="13" t="s">
         <v>1085</v>
       </c>
@@ -19588,7 +19614,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" s="11" t="s">
         <v>1085</v>
       </c>
@@ -19617,7 +19643,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" s="13" t="s">
         <v>1085</v>
       </c>
@@ -19646,7 +19672,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" s="11" t="s">
         <v>1085</v>
       </c>
@@ -19675,7 +19701,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" s="13" t="s">
         <v>1085</v>
       </c>
@@ -19704,7 +19730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" s="11" t="s">
         <v>1085</v>
       </c>
@@ -19733,7 +19759,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" s="13" t="s">
         <v>1085</v>
       </c>
@@ -19762,7 +19788,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" s="11" t="s">
         <v>1085</v>
       </c>
@@ -19791,7 +19817,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" s="13" t="s">
         <v>1085</v>
       </c>
@@ -19820,7 +19846,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" s="11" t="s">
         <v>1085</v>
       </c>
@@ -19849,7 +19875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" s="13" t="s">
         <v>1085</v>
       </c>
@@ -19878,7 +19904,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" s="11" t="s">
         <v>1085</v>
       </c>
@@ -19907,7 +19933,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" s="13" t="s">
         <v>1085</v>
       </c>
@@ -19932,7 +19958,7 @@
       </c>
       <c r="J72" s="13"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" s="11" t="s">
         <v>1085</v>
       </c>
@@ -19961,7 +19987,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" s="13" t="s">
         <v>1085</v>
       </c>
@@ -19990,7 +20016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" s="11" t="s">
         <v>1085</v>
       </c>
@@ -20019,7 +20045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" s="13" t="s">
         <v>1085</v>
       </c>
@@ -20048,7 +20074,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" s="11" t="s">
         <v>1085</v>
       </c>
@@ -20077,7 +20103,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" s="13" t="s">
         <v>1085</v>
       </c>
@@ -20106,7 +20132,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" s="11" t="s">
         <v>1085</v>
       </c>
@@ -20135,7 +20161,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" s="13" t="s">
         <v>1085</v>
       </c>
@@ -20164,7 +20190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" s="11" t="s">
         <v>1085</v>
       </c>
@@ -20193,7 +20219,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" s="13" t="s">
         <v>1085</v>
       </c>
@@ -20222,7 +20248,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" s="11" t="s">
         <v>1085</v>
       </c>
@@ -20251,7 +20277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" s="13" t="s">
         <v>1085</v>
       </c>
@@ -20280,7 +20306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" s="11" t="s">
         <v>1085</v>
       </c>
@@ -20309,7 +20335,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="2:10" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:10" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" s="13" t="s">
         <v>1085</v>
       </c>
@@ -20338,7 +20364,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="2:10" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:10" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" s="11" t="s">
         <v>1085</v>
       </c>
@@ -20367,7 +20393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" s="13" t="s">
         <v>1085</v>
       </c>
@@ -20396,7 +20422,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" s="11" t="s">
         <v>1085</v>
       </c>
@@ -20425,7 +20451,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" s="13" t="s">
         <v>1085</v>
       </c>
@@ -20454,7 +20480,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" s="11" t="s">
         <v>1085</v>
       </c>
@@ -20483,7 +20509,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" s="13" t="s">
         <v>1085</v>
       </c>
@@ -20512,7 +20538,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" s="11" t="s">
         <v>1085</v>
       </c>
@@ -20541,7 +20567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" s="13" t="s">
         <v>1085</v>
       </c>
@@ -20570,7 +20596,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" s="11" t="s">
         <v>1085</v>
       </c>
@@ -20599,7 +20625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" s="13" t="s">
         <v>1085</v>
       </c>
@@ -20628,7 +20654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" s="11" t="s">
         <v>1085</v>
       </c>
@@ -20657,7 +20683,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" s="13" t="s">
         <v>1085</v>
       </c>
@@ -20686,7 +20712,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" s="11" t="s">
         <v>1085</v>
       </c>
@@ -20715,7 +20741,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" s="13" t="s">
         <v>1085</v>
       </c>
@@ -20744,7 +20770,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" s="11" t="s">
         <v>1085</v>
       </c>
@@ -20773,7 +20799,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" s="13" t="s">
         <v>1085</v>
       </c>
@@ -20802,7 +20828,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" s="11" t="s">
         <v>1085</v>
       </c>
@@ -20831,7 +20857,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" s="13" t="s">
         <v>1085</v>
       </c>
@@ -20860,7 +20886,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" s="11" t="s">
         <v>1085</v>
       </c>
@@ -20889,7 +20915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" s="13" t="s">
         <v>1085</v>
       </c>
@@ -20918,7 +20944,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" s="11" t="s">
         <v>1085</v>
       </c>
@@ -20947,7 +20973,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" s="13" t="s">
         <v>1085</v>
       </c>
@@ -20976,7 +21002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" s="11" t="s">
         <v>1085</v>
       </c>
@@ -21005,7 +21031,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" s="13" t="s">
         <v>1085</v>
       </c>
@@ -21034,7 +21060,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="2:10" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:10" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" s="11" t="s">
         <v>1085</v>
       </c>
@@ -21063,7 +21089,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" s="13" t="s">
         <v>1085</v>
       </c>
@@ -21092,7 +21118,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" s="11" t="s">
         <v>1085</v>
       </c>
@@ -21121,7 +21147,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" s="13" t="s">
         <v>1085</v>
       </c>
@@ -21150,7 +21176,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" s="11" t="s">
         <v>1085</v>
       </c>
@@ -21179,7 +21205,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" s="13" t="s">
         <v>1085</v>
       </c>
@@ -21208,7 +21234,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" s="11" t="s">
         <v>1085</v>
       </c>
@@ -21237,7 +21263,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" s="13" t="s">
         <v>1085</v>
       </c>
@@ -21266,7 +21292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" s="11" t="s">
         <v>1085</v>
       </c>
@@ -21295,7 +21321,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="2:10" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:10" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" s="13" t="s">
         <v>1085</v>
       </c>
@@ -21324,7 +21350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" s="11" t="s">
         <v>1201</v>
       </c>
@@ -21353,7 +21379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" s="13" t="s">
         <v>1085</v>
       </c>
@@ -21382,7 +21408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" s="11" t="s">
         <v>1085</v>
       </c>
@@ -21411,7 +21437,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" s="13" t="s">
         <v>1085</v>
       </c>
@@ -21440,7 +21466,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" s="11" t="s">
         <v>1085</v>
       </c>
@@ -21469,7 +21495,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" s="13" t="s">
         <v>1085</v>
       </c>
@@ -21498,7 +21524,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" s="11" t="s">
         <v>1085</v>
       </c>
@@ -21527,7 +21553,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" s="13" t="s">
         <v>1085</v>
       </c>
@@ -21556,7 +21582,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" s="11" t="s">
         <v>1085</v>
       </c>
@@ -21585,7 +21611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" s="13" t="s">
         <v>1085</v>
       </c>
@@ -21614,7 +21640,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" s="11" t="s">
         <v>1085</v>
       </c>
@@ -21643,7 +21669,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" s="13" t="s">
         <v>1085</v>
       </c>
@@ -21672,7 +21698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" s="11" t="s">
         <v>1085</v>
       </c>
@@ -21701,7 +21727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" s="13" t="s">
         <v>1085</v>
       </c>
@@ -21730,7 +21756,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" s="11" t="s">
         <v>1085</v>
       </c>
@@ -21759,7 +21785,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="2:10" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:10" ht="101.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" s="13" t="s">
         <v>1085</v>
       </c>
@@ -21788,7 +21814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="2:10" ht="90" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:10" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" s="11" t="s">
         <v>1085</v>
       </c>
@@ -21817,7 +21843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" s="13" t="s">
         <v>1085</v>
       </c>
@@ -21846,7 +21872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="139" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" s="11" t="s">
         <v>1085</v>
       </c>
@@ -21875,7 +21901,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" s="13" t="s">
         <v>1085</v>
       </c>
@@ -21904,7 +21930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" s="11" t="s">
         <v>1085</v>
       </c>
@@ -21933,7 +21959,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" s="13" t="s">
         <v>1085</v>
       </c>
@@ -21962,7 +21988,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" s="11" t="s">
         <v>1085</v>
       </c>
@@ -21991,7 +22017,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" s="13" t="s">
         <v>1085</v>
       </c>
@@ -22020,7 +22046,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" s="11" t="s">
         <v>1085</v>
       </c>
@@ -22049,7 +22075,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="146" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" s="13" t="s">
         <v>1085</v>
       </c>
@@ -22078,7 +22104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" s="11" t="s">
         <v>1085</v>
       </c>
@@ -22107,7 +22133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" s="13" t="s">
         <v>1085</v>
       </c>
@@ -22136,7 +22162,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="2:10" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:10" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" s="11" t="s">
         <v>1085</v>
       </c>
@@ -22165,7 +22191,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="2:10" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:10" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" s="13" t="s">
         <v>1085</v>
       </c>
@@ -22194,7 +22220,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" s="11" t="s">
         <v>1085</v>
       </c>
@@ -22223,7 +22249,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="152" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" s="13" t="s">
         <v>1085</v>
       </c>
@@ -22252,7 +22278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" s="11" t="s">
         <v>1085</v>
       </c>
@@ -22281,7 +22307,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" s="13" t="s">
         <v>1085</v>
       </c>
@@ -22310,7 +22336,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" s="11" t="s">
         <v>1085</v>
       </c>
@@ -22339,7 +22365,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="156" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" s="13" t="s">
         <v>1085</v>
       </c>
@@ -22368,7 +22394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="157" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" s="11" t="s">
         <v>1085</v>
       </c>
@@ -22397,7 +22423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="158" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" s="13" t="s">
         <v>1085</v>
       </c>
@@ -22426,7 +22452,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" s="11" t="s">
         <v>1085</v>
       </c>
@@ -22455,7 +22481,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" s="13" t="s">
         <v>1085</v>
       </c>
@@ -22484,7 +22510,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="161" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" s="11" t="s">
         <v>1085</v>
       </c>
@@ -22513,7 +22539,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="162" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" s="13" t="s">
         <v>1085</v>
       </c>
@@ -22542,7 +22568,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" s="11" t="s">
         <v>1085</v>
       </c>
@@ -22571,7 +22597,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="164" spans="2:10" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:10" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" s="13" t="s">
         <v>1085</v>
       </c>
@@ -22600,7 +22626,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" s="11" t="s">
         <v>1085</v>
       </c>
@@ -22629,7 +22655,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" s="13" t="s">
         <v>1085</v>
       </c>
@@ -22658,7 +22684,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="167" spans="2:10" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:10" ht="101.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" s="11" t="s">
         <v>1085</v>
       </c>
@@ -22687,7 +22713,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="2:10" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:10" ht="101.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" s="13" t="s">
         <v>1085</v>
       </c>
@@ -22716,7 +22742,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="169" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" s="11" t="s">
         <v>1085</v>
       </c>
@@ -22745,7 +22771,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" s="13" t="s">
         <v>1085</v>
       </c>
@@ -22774,7 +22800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" s="11" t="s">
         <v>1085</v>
       </c>
@@ -22803,7 +22829,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="172" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" s="13" t="s">
         <v>1085</v>
       </c>
@@ -22832,7 +22858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" s="11" t="s">
         <v>1085</v>
       </c>
@@ -22861,7 +22887,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="174" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" s="13" t="s">
         <v>1085</v>
       </c>
@@ -22890,7 +22916,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" s="11" t="s">
         <v>1085</v>
       </c>
@@ -22919,7 +22945,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" s="13" t="s">
         <v>1085</v>
       </c>
@@ -22948,7 +22974,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" s="11" t="s">
         <v>1085</v>
       </c>
@@ -22977,7 +23003,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="178" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" s="13" t="s">
         <v>1085</v>
       </c>
@@ -23006,7 +23032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="179" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" s="11" t="s">
         <v>1085</v>
       </c>
@@ -23035,7 +23061,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="180" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" s="13" t="s">
         <v>1085</v>
       </c>
@@ -23064,7 +23090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" s="11" t="s">
         <v>1085</v>
       </c>
@@ -23093,7 +23119,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="182" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" s="13" t="s">
         <v>1085</v>
       </c>
@@ -23122,7 +23148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B183" s="11" t="s">
         <v>1273</v>
       </c>
@@ -23151,7 +23177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="184" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" s="13" t="s">
         <v>1273</v>
       </c>
@@ -23180,7 +23206,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" s="11" t="s">
         <v>1273</v>
       </c>
@@ -23209,7 +23235,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="186" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" s="13" t="s">
         <v>1273</v>
       </c>
@@ -23238,7 +23264,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="187" spans="2:10" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:10" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" s="11" t="s">
         <v>1273</v>
       </c>
@@ -23267,7 +23293,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="188" spans="2:10" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:10" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" s="13" t="s">
         <v>1273</v>
       </c>
@@ -23296,7 +23322,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="189" spans="2:10" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:10" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B189" s="11" t="s">
         <v>1273</v>
       </c>
@@ -23325,7 +23351,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="190" spans="2:10" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:10" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" s="13" t="s">
         <v>1273</v>
       </c>
@@ -23354,7 +23380,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="191" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" s="11" t="s">
         <v>1273</v>
       </c>
@@ -23383,7 +23409,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="192" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" s="13" t="s">
         <v>1273</v>
       </c>
@@ -23412,7 +23438,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="193" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" s="11" t="s">
         <v>1273</v>
       </c>
@@ -23441,7 +23467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B194" s="13" t="s">
         <v>1273</v>
       </c>
@@ -23470,7 +23496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="195" spans="2:10" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:10" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" s="11" t="s">
         <v>1273</v>
       </c>
@@ -23499,7 +23525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="196" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" s="13" t="s">
         <v>1273</v>
       </c>
@@ -23528,7 +23554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="197" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" s="11" t="s">
         <v>1273</v>
       </c>
@@ -23557,7 +23583,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="198" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" s="13" t="s">
         <v>1273</v>
       </c>
@@ -23586,7 +23612,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="199" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" s="11" t="s">
         <v>1273</v>
       </c>
@@ -23615,7 +23641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="200" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B200" s="13" t="s">
         <v>1273</v>
       </c>
@@ -23644,7 +23670,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="201" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B201" s="11" t="s">
         <v>1273</v>
       </c>
@@ -23673,7 +23699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="202" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" s="13" t="s">
         <v>1273</v>
       </c>
@@ -23702,7 +23728,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="203" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" s="11" t="s">
         <v>1273</v>
       </c>
@@ -23731,7 +23757,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" s="13" t="s">
         <v>1273</v>
       </c>
@@ -23760,7 +23786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="205" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" s="11" t="s">
         <v>1273</v>
       </c>
@@ -23789,7 +23815,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" s="13" t="s">
         <v>1273</v>
       </c>
@@ -23818,7 +23844,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B207" s="11" t="s">
         <v>1273</v>
       </c>
@@ -23847,7 +23873,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" s="13" t="s">
         <v>1273</v>
       </c>
@@ -23876,7 +23902,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="209" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" s="11" t="s">
         <v>1273</v>
       </c>
@@ -23905,7 +23931,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="210" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" s="13" t="s">
         <v>1273</v>
       </c>
@@ -23934,7 +23960,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="211" spans="2:10" ht="90" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:10" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" s="11" t="s">
         <v>1273</v>
       </c>
@@ -23963,7 +23989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="2:10" ht="90" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:10" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="B212" s="13" t="s">
         <v>1273</v>
       </c>
@@ -23992,7 +24018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B213" s="11" t="s">
         <v>1273</v>
       </c>
@@ -24021,7 +24047,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B214" s="13" t="s">
         <v>1273</v>
       </c>
@@ -24050,7 +24076,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="215" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B215" s="11" t="s">
         <v>1273</v>
       </c>
@@ -24079,7 +24105,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="216" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B216" s="13" t="s">
         <v>1273</v>
       </c>
@@ -24108,7 +24134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="217" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B217" s="11" t="s">
         <v>1273</v>
       </c>
@@ -24137,7 +24163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B218" s="13" t="s">
         <v>1273</v>
       </c>
@@ -24166,7 +24192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="2:10" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:10" ht="101.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B219" s="11" t="s">
         <v>1273</v>
       </c>
@@ -24195,7 +24221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="2:10" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:10" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B220" s="13" t="s">
         <v>1273</v>
       </c>
@@ -24224,7 +24250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="221" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B221" s="11" t="s">
         <v>1273</v>
       </c>
@@ -24253,7 +24279,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="222" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B222" s="13" t="s">
         <v>1273</v>
       </c>
@@ -24282,7 +24308,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="223" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B223" s="11" t="s">
         <v>1273</v>
       </c>
@@ -24311,7 +24337,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="224" spans="2:10" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:10" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B224" s="13" t="s">
         <v>1273</v>
       </c>
@@ -24340,7 +24366,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="225" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B225" s="11" t="s">
         <v>1273</v>
       </c>
@@ -24369,7 +24395,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="226" spans="2:10" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:10" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B226" s="13" t="s">
         <v>1273</v>
       </c>
@@ -24398,7 +24424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="227" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B227" s="11" t="s">
         <v>1273</v>
       </c>
@@ -24427,7 +24453,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="228" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B228" s="13" t="s">
         <v>1273</v>
       </c>
@@ -24456,7 +24482,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="229" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B229" s="11" t="s">
         <v>1273</v>
       </c>
@@ -24485,7 +24511,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="230" spans="2:10" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:10" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B230" s="13" t="s">
         <v>1273</v>
       </c>
@@ -24514,7 +24540,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="231" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B231" s="11" t="s">
         <v>1273</v>
       </c>
@@ -24543,7 +24569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="232" spans="2:10" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:10" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B232" s="13" t="s">
         <v>1273</v>
       </c>
@@ -24572,7 +24598,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="233" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B233" s="11" t="s">
         <v>1273</v>
       </c>
@@ -24601,7 +24627,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="234" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B234" s="13" t="s">
         <v>1273</v>
       </c>
@@ -24630,7 +24656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="235" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B235" s="11" t="s">
         <v>1273</v>
       </c>
@@ -24659,7 +24685,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="236" spans="2:10" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:10" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B236" s="13" t="s">
         <v>1273</v>
       </c>
@@ -24688,7 +24714,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="237" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B237" s="11" t="s">
         <v>1273</v>
       </c>
@@ -24717,7 +24743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="238" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B238" s="13" t="s">
         <v>1273</v>
       </c>
@@ -24746,7 +24772,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="239" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B239" s="11" t="s">
         <v>1273</v>
       </c>
@@ -24775,7 +24801,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="240" spans="2:10" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:10" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B240" s="13" t="s">
         <v>1273</v>
       </c>
@@ -24804,7 +24830,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="241" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B241" s="11" t="s">
         <v>1273</v>
       </c>
@@ -24833,7 +24859,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="242" spans="2:10" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:10" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B242" s="13" t="s">
         <v>1273</v>
       </c>
@@ -24862,7 +24888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="243" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B243" s="11" t="s">
         <v>1273</v>
       </c>
@@ -24891,7 +24917,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B244" s="13" t="s">
         <v>1273</v>
       </c>
@@ -24920,7 +24946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="245" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B245" s="11" t="s">
         <v>1273</v>
       </c>
@@ -24949,7 +24975,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="246" spans="2:10" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:10" ht="101.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B246" s="13" t="s">
         <v>1273</v>
       </c>
@@ -24978,7 +25004,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="247" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B247" s="11" t="s">
         <v>1273</v>
       </c>
@@ -25007,7 +25033,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B248" s="13" t="s">
         <v>1273</v>
       </c>
@@ -25036,7 +25062,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="249" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B249" s="11" t="s">
         <v>1273</v>
       </c>
@@ -25065,7 +25091,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="250" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B250" s="13" t="s">
         <v>1273</v>
       </c>
@@ -25094,7 +25120,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="251" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:10" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B251" s="11" t="s">
         <v>1273</v>
       </c>
@@ -25123,7 +25149,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="252" spans="2:10" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:10" ht="56.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B252" s="13" t="s">
         <v>1273</v>
       </c>
@@ -25152,7 +25178,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="253" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B253" s="11" t="s">
         <v>1273</v>
       </c>
@@ -25181,7 +25207,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="254" spans="2:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:10" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="B254" s="13" t="s">
         <v>1273</v>
       </c>
@@ -25210,7 +25236,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="255" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B255" s="11" t="s">
         <v>1273</v>
       </c>
@@ -25239,7 +25265,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="256" spans="2:10" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:10" ht="67.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B256" s="13" t="s">
         <v>1273</v>
       </c>
@@ -25268,7 +25294,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="257" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B257" s="11" t="s">
         <v>1273</v>
       </c>
@@ -25297,7 +25323,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="258" spans="2:10" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:10" ht="33.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="B258" s="13" t="s">
         <v>1273</v>
       </c>
@@ -25327,7 +25353,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B10:J258" xr:uid="{A8B1D74C-992F-494C-9FCC-429E97149509}"/>
+  <autoFilter ref="B10:J258" xr:uid="{6375F8B4-5713-48DA-8140-090B0BCE5F30}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="ibr-027"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:E4"/>
@@ -25595,34 +25627,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38ca6ff3-8692-406a-bcbd-91fe8f1629fe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="694fc7c8-a271-466e-8696-8f21270a1628" xsi:nil="true"/>
-    <Summary xmlns="38ca6ff3-8692-406a-bcbd-91fe8f1629fe" xsi:nil="true"/>
-    <Contents xmlns="38ca6ff3-8692-406a-bcbd-91fe8f1629fe" xsi:nil="true"/>
-    <Segment xmlns="38ca6ff3-8692-406a-bcbd-91fe8f1629fe" xsi:nil="true"/>
-    <DocumentType xmlns="38ca6ff3-8692-406a-bcbd-91fe8f1629fe" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="694fc7c8-a271-466e-8696-8f21270a1628">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <eInvoicingArea xmlns="38ca6ff3-8692-406a-bcbd-91fe8f1629fe" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E7E1C8F3E417404D92D3A44A75786C32" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5572bc289c0fc2664fa4c35c5c6d64c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="38ca6ff3-8692-406a-bcbd-91fe8f1629fe" xmlns:ns3="694fc7c8-a271-466e-8696-8f21270a1628" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2211af3887db39dfa1dbe6912201ee25" ns2:_="" ns3:_="">
     <xsd:import namespace="38ca6ff3-8692-406a-bcbd-91fe8f1629fe"/>
@@ -25937,7 +25941,62 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38ca6ff3-8692-406a-bcbd-91fe8f1629fe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="694fc7c8-a271-466e-8696-8f21270a1628" xsi:nil="true"/>
+    <Summary xmlns="38ca6ff3-8692-406a-bcbd-91fe8f1629fe" xsi:nil="true"/>
+    <Contents xmlns="38ca6ff3-8692-406a-bcbd-91fe8f1629fe" xsi:nil="true"/>
+    <Segment xmlns="38ca6ff3-8692-406a-bcbd-91fe8f1629fe" xsi:nil="true"/>
+    <DocumentType xmlns="38ca6ff3-8692-406a-bcbd-91fe8f1629fe" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="694fc7c8-a271-466e-8696-8f21270a1628">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <eInvoicingArea xmlns="38ca6ff3-8692-406a-bcbd-91fe8f1629fe" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{805DCF3C-0DDB-4D43-B9D2-86C247D42C10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="38ca6ff3-8692-406a-bcbd-91fe8f1629fe"/>
+    <ds:schemaRef ds:uri="694fc7c8-a271-466e-8696-8f21270a1628"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F488416-FD3E-44FB-8A45-A40542F1EF1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{695DAFA8-1B5F-434A-BDF1-1DA8D4C75C02}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -25952,16 +26011,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F488416-FD3E-44FB-8A45-A40542F1EF1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{805DCF3C-0DDB-4D43-B9D2-86C247D42C10}"/>
 </file>